--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,154 +40,151 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>dilemma</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -562,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -673,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -723,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -773,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,16 +841,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.6266666666666667</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.5862068965517241</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.5666666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.725</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,31 +1088,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>14</v>
-      </c>
-      <c r="M12">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6875</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1141,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6811594202898551</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C14">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>51</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K14">
-        <v>0.375</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1241,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.2926829268292683</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,10 +1291,10 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.2033898305084746</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L16">
         <v>12</v>
@@ -1315,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.1851851851851852</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5217391304347826</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.1639344262295082</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,16 +1441,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.1329690346083789</v>
+        <v>0.1183970856102004</v>
       </c>
       <c r="L19">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="M19">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,16 +1491,16 @@
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.1157894736842105</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.1058823529411765</v>
+        <v>0.06360424028268551</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4857142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.06007067137809187</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1620,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4761904761904762</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.05740740740740741</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1665,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.04444444444444445</v>
+        <v>0.04383116883116883</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>301</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,13 +1720,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3829787234042553</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1741,31 +1738,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.04216867469879518</v>
+        <v>0.03754266211604096</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>636</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1770,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3571428571428572</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1791,131 +1788,83 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.03012048192771084</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K26">
-        <v>0.03733766233766234</v>
-      </c>
-      <c r="L26">
-        <v>23</v>
-      </c>
-      <c r="M26">
-        <v>23</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>18</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27">
+        <v>0.02995391705069124</v>
+      </c>
+      <c r="L27">
+        <v>52</v>
+      </c>
+      <c r="M27">
+        <v>52</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K27">
-        <v>0.03110599078341014</v>
-      </c>
-      <c r="L27">
-        <v>54</v>
-      </c>
-      <c r="M27">
-        <v>54</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.217948717948718</v>
-      </c>
-      <c r="C28">
-        <v>17</v>
-      </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>61</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K28">
-        <v>0.01536491677336748</v>
+        <v>0.01668806161745828</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
